--- a/16_feture_scaling_processes.xlsx
+++ b/16_feture_scaling_processes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepmakwana/Documents/Machine learnning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{179D19F4-7A48-FF46-AAE6-58D0AED117C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F64C8-7B10-9B47-B0EE-82AD696483A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{C5623485-50BF-1B47-A8EB-05C12DA9D8FC}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="24200" windowHeight="15500" xr2:uid="{C5623485-50BF-1B47-A8EB-05C12DA9D8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -179,13 +179,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D38271-D54F-5D4E-9C13-5680605C1458}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,17 +516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -726,9 +726,9 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
